--- a/Livro1.xlsx
+++ b/Livro1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MEI\basedados\NEO4j\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B35236-237B-41B7-A667-CBC36462BB8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A8AB42-3AD2-479F-9ABE-8776164CDEF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{B2E8CECA-5EA5-4720-8009-C11064D0043A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
   <si>
     <t>enderecos</t>
   </si>
@@ -99,6 +99,33 @@
   </si>
   <si>
     <t>72,94</t>
+  </si>
+  <si>
+    <t>update</t>
+  </si>
+  <si>
+    <t>0,86</t>
+  </si>
+  <si>
+    <t>0,84</t>
+  </si>
+  <si>
+    <t>1,51</t>
+  </si>
+  <si>
+    <t>1,38</t>
+  </si>
+  <si>
+    <t>13,55</t>
+  </si>
+  <si>
+    <t>13,854</t>
+  </si>
+  <si>
+    <t>198,36</t>
+  </si>
+  <si>
+    <t>206,89</t>
   </si>
 </sst>
 </file>
@@ -453,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{852351E4-6A42-4438-B645-651426245082}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,9 +493,11 @@
     <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
@@ -477,8 +506,12 @@
         <v>12</v>
       </c>
       <c r="E1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -494,8 +527,14 @@
       <c r="E2" t="s">
         <v>1</v>
       </c>
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>100</v>
       </c>
@@ -511,8 +550,14 @@
       <c r="E3" t="s">
         <v>14</v>
       </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>200</v>
       </c>
@@ -528,8 +573,14 @@
       <c r="E4" t="s">
         <v>16</v>
       </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2000</v>
       </c>
@@ -545,8 +596,14 @@
       <c r="E5" t="s">
         <v>18</v>
       </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>20000</v>
       </c>
@@ -562,11 +619,18 @@
       <c r="E6" t="s">
         <v>20</v>
       </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
